--- a/Excel-XLSX/UN-BZE.xlsx
+++ b/Excel-XLSX/UN-BZE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="377">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>MT70go</t>
+    <t>WjK4g9</t>
   </si>
   <si>
     <t>2015</t>
@@ -471,6 +471,9 @@
     <t>47</t>
   </si>
   <si>
+    <t>409</t>
+  </si>
+  <si>
     <t>48</t>
   </si>
   <si>
@@ -492,6 +495,9 @@
     <t>50</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>83</t>
   </si>
   <si>
@@ -507,9 +513,6 @@
     <t>221</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
@@ -522,12 +525,12 @@
     <t>55</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>98</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
     <t>96</t>
   </si>
   <si>
@@ -537,18 +540,18 @@
     <t>4138</t>
   </si>
   <si>
+    <t>59</t>
+  </si>
+  <si>
     <t>75</t>
   </si>
   <si>
-    <t>59</t>
+    <t>60</t>
   </si>
   <si>
     <t>70</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>61</t>
   </si>
   <si>
@@ -570,51 +573,57 @@
     <t>67</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
     <t>89</t>
   </si>
   <si>
-    <t>68</t>
+    <t>69</t>
   </si>
   <si>
     <t>531</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
     <t>601</t>
   </si>
   <si>
+    <t>71</t>
+  </si>
+  <si>
     <t>617</t>
   </si>
   <si>
-    <t>71</t>
+    <t>72</t>
   </si>
   <si>
     <t>448</t>
   </si>
   <si>
-    <t>72</t>
+    <t>73</t>
   </si>
   <si>
     <t>485</t>
   </si>
   <si>
-    <t>73</t>
+    <t>74</t>
   </si>
   <si>
     <t>433</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
     <t>425</t>
   </si>
   <si>
     <t>76</t>
   </si>
   <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>140</t>
   </si>
   <si>
@@ -624,27 +633,24 @@
     <t>NIC</t>
   </si>
   <si>
-    <t>77</t>
+    <t>79</t>
   </si>
   <si>
     <t>309</t>
   </si>
   <si>
-    <t>79</t>
+    <t>80</t>
   </si>
   <si>
     <t>310</t>
   </si>
   <si>
-    <t>80</t>
+    <t>82</t>
   </si>
   <si>
     <t>304</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
     <t>303</t>
   </si>
   <si>
@@ -654,45 +660,45 @@
     <t>125</t>
   </si>
   <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>105</t>
   </si>
   <si>
     <t>128</t>
   </si>
   <si>
-    <t>86</t>
+    <t>87</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>87</t>
+    <t>88</t>
   </si>
   <si>
     <t>95</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>90</t>
   </si>
   <si>
     <t>91</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
     <t>2006</t>
   </si>
   <si>
-    <t>92</t>
+    <t>93</t>
   </si>
   <si>
     <t>2007</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
@@ -711,6 +717,9 @@
     <t>103</t>
   </si>
   <si>
+    <t>104</t>
+  </si>
+  <si>
     <t>141</t>
   </si>
   <si>
@@ -723,12 +732,12 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
     <t>106</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
     <t>150</t>
   </si>
   <si>
@@ -738,9 +747,6 @@
     <t>PER</t>
   </si>
   <si>
-    <t>107</t>
-  </si>
-  <si>
     <t>108</t>
   </si>
   <si>
@@ -988,6 +994,9 @@
   </si>
   <si>
     <t>157</t>
+  </si>
+  <si>
+    <t>1131</t>
   </si>
   <si>
     <t>158</t>
@@ -1662,8 +1671,8 @@
       <c r="U2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>31</v>
+      <c r="V2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -1730,8 +1739,8 @@
       <c r="U3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>31</v>
+      <c r="V3" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -1798,8 +1807,8 @@
       <c r="U4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>31</v>
+      <c r="V4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1866,8 +1875,8 @@
       <c r="U5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>31</v>
+      <c r="V5" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1934,8 +1943,8 @@
       <c r="U6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>31</v>
+      <c r="V6" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -2002,8 +2011,8 @@
       <c r="U7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>31</v>
+      <c r="V7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -2206,8 +2215,8 @@
       <c r="U10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>31</v>
+      <c r="V10" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -2274,8 +2283,8 @@
       <c r="U11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>31</v>
+      <c r="V11" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -2342,8 +2351,8 @@
       <c r="U12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>31</v>
+      <c r="V12" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -2410,8 +2419,8 @@
       <c r="U13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>31</v>
+      <c r="V13" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2478,8 +2487,8 @@
       <c r="U14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>31</v>
+      <c r="V14" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -2546,8 +2555,8 @@
       <c r="U15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>31</v>
+      <c r="V15" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -2614,8 +2623,8 @@
       <c r="U16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>31</v>
+      <c r="V16" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -2682,8 +2691,8 @@
       <c r="U17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>31</v>
+      <c r="V17" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2750,8 +2759,8 @@
       <c r="U18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>31</v>
+      <c r="V18" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -2818,8 +2827,8 @@
       <c r="U19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>31</v>
+      <c r="V19" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -2886,8 +2895,8 @@
       <c r="U20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>31</v>
+      <c r="V20" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -2954,8 +2963,8 @@
       <c r="U21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>31</v>
+      <c r="V21" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -3022,8 +3031,8 @@
       <c r="U22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>31</v>
+      <c r="V22" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -3090,8 +3099,8 @@
       <c r="U23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>31</v>
+      <c r="V23" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -3158,8 +3167,8 @@
       <c r="U24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>31</v>
+      <c r="V24" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -3226,8 +3235,8 @@
       <c r="U25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>31</v>
+      <c r="V25" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -3294,8 +3303,8 @@
       <c r="U26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>31</v>
+      <c r="V26" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -3362,8 +3371,8 @@
       <c r="U27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>31</v>
+      <c r="V27" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -3430,8 +3439,8 @@
       <c r="U28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>31</v>
+      <c r="V28" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -3498,8 +3507,8 @@
       <c r="U29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>31</v>
+      <c r="V29" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -3566,8 +3575,8 @@
       <c r="U30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>31</v>
+      <c r="V30" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -3634,8 +3643,8 @@
       <c r="U31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>31</v>
+      <c r="V31" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -3702,8 +3711,8 @@
       <c r="U32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>31</v>
+      <c r="V32" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -3770,8 +3779,8 @@
       <c r="U33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>31</v>
+      <c r="V33" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -3838,8 +3847,8 @@
       <c r="U34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>31</v>
+      <c r="V34" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -3906,8 +3915,8 @@
       <c r="U35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>31</v>
+      <c r="V35" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36">
@@ -3974,8 +3983,8 @@
       <c r="U36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>31</v>
+      <c r="V36" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -4042,8 +4051,8 @@
       <c r="U37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>31</v>
+      <c r="V37" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -4110,8 +4119,8 @@
       <c r="U38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>31</v>
+      <c r="V38" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -4178,8 +4187,8 @@
       <c r="U39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>31</v>
+      <c r="V39" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -4246,8 +4255,8 @@
       <c r="U40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>31</v>
+      <c r="V40" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="41">
@@ -4314,8 +4323,8 @@
       <c r="U41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>31</v>
+      <c r="V41" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -4382,8 +4391,8 @@
       <c r="U42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>31</v>
+      <c r="V42" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -4450,8 +4459,8 @@
       <c r="U43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>31</v>
+      <c r="V43" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="44">
@@ -4518,8 +4527,8 @@
       <c r="U44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>31</v>
+      <c r="V44" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -4586,8 +4595,8 @@
       <c r="U45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>31</v>
+      <c r="V45" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -4654,8 +4663,8 @@
       <c r="U46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>31</v>
+      <c r="V46" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47">
@@ -4767,10 +4776,10 @@
         <v>28</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>29</v>
@@ -4805,22 +4814,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>25</v>
@@ -4858,8 +4867,8 @@
       <c r="U49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>31</v>
+      <c r="V49" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="50">
@@ -4873,22 +4882,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>25</v>
@@ -4926,8 +4935,8 @@
       <c r="U50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>31</v>
+      <c r="V50" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -4941,22 +4950,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>25</v>
@@ -4971,13 +4980,13 @@
         <v>28</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>29</v>
@@ -4994,8 +5003,8 @@
       <c r="U51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>31</v>
+      <c r="V51" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -5009,23 +5018,23 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="J52" s="2" t="s">
         <v>25</v>
       </c>
@@ -5039,13 +5048,13 @@
         <v>28</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>29</v>
@@ -5062,8 +5071,8 @@
       <c r="U52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>31</v>
+      <c r="V52" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="53">
@@ -5077,38 +5086,38 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N53" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="O53" s="2" t="s">
         <v>29</v>
       </c>
@@ -5130,8 +5139,8 @@
       <c r="U53" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>31</v>
+      <c r="V53" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="54">
@@ -5145,22 +5154,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>25</v>
@@ -5175,7 +5184,7 @@
         <v>28</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>29</v>
@@ -5198,8 +5207,8 @@
       <c r="U54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>31</v>
+      <c r="V54" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="55">
@@ -5213,22 +5222,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>25</v>
@@ -5243,7 +5252,7 @@
         <v>28</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>29</v>
@@ -5266,8 +5275,8 @@
       <c r="U55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>31</v>
+      <c r="V55" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="56">
@@ -5281,22 +5290,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>25</v>
@@ -5311,7 +5320,7 @@
         <v>28</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>29</v>
@@ -5334,8 +5343,8 @@
       <c r="U56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>31</v>
+      <c r="V56" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="57">
@@ -5352,19 +5361,19 @@
         <v>169</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>25</v>
@@ -5402,8 +5411,8 @@
       <c r="U57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>31</v>
+      <c r="V57" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="58">
@@ -5420,19 +5429,19 @@
         <v>30</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>25</v>
@@ -5465,13 +5474,13 @@
         <v>29</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="U58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>31</v>
+      <c r="V58" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="59">
@@ -5488,19 +5497,19 @@
         <v>51</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>25</v>
@@ -5515,31 +5524,31 @@
         <v>28</v>
       </c>
       <c r="N59" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T59" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U59" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>31</v>
+      <c r="V59" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="60">
@@ -5556,19 +5565,19 @@
         <v>174</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>25</v>
@@ -5606,8 +5615,8 @@
       <c r="U60" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>31</v>
+      <c r="V60" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="61">
@@ -5624,19 +5633,19 @@
         <v>176</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>25</v>
@@ -5651,7 +5660,7 @@
         <v>28</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>29</v>
@@ -5674,8 +5683,8 @@
       <c r="U61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>31</v>
+      <c r="V61" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="62">
@@ -5689,22 +5698,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>25</v>
@@ -5719,7 +5728,7 @@
         <v>28</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>29</v>
@@ -5742,8 +5751,8 @@
       <c r="U62" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>31</v>
+      <c r="V62" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="63">
@@ -5757,22 +5766,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>25</v>
@@ -5787,10 +5796,10 @@
         <v>28</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>29</v>
@@ -5810,8 +5819,8 @@
       <c r="U63" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>31</v>
+      <c r="V63" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="64">
@@ -5825,22 +5834,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>25</v>
@@ -5878,8 +5887,8 @@
       <c r="U64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>31</v>
+      <c r="V64" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="65">
@@ -5893,22 +5902,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>25</v>
@@ -5946,8 +5955,8 @@
       <c r="U65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>31</v>
+      <c r="V65" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="66">
@@ -5961,22 +5970,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>25</v>
@@ -5994,7 +6003,7 @@
         <v>29</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>29</v>
@@ -6014,8 +6023,8 @@
       <c r="U66" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>31</v>
+      <c r="V66" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -6029,22 +6038,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>25</v>
@@ -6062,7 +6071,7 @@
         <v>29</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>29</v>
@@ -6082,8 +6091,8 @@
       <c r="U67" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>31</v>
+      <c r="V67" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="68">
@@ -6097,22 +6106,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>25</v>
@@ -6130,7 +6139,7 @@
         <v>29</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>29</v>
@@ -6150,8 +6159,8 @@
       <c r="U68" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>31</v>
+      <c r="V68" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="69">
@@ -6168,19 +6177,19 @@
         <v>185</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>25</v>
@@ -6218,8 +6227,8 @@
       <c r="U69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>31</v>
+      <c r="V69" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="70">
@@ -6236,19 +6245,19 @@
         <v>187</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>25</v>
@@ -6286,8 +6295,8 @@
       <c r="U70" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>31</v>
+      <c r="V70" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="71">
@@ -6301,22 +6310,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>25</v>
@@ -6331,7 +6340,7 @@
         <v>28</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>189</v>
@@ -6354,8 +6363,8 @@
       <c r="U71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>31</v>
+      <c r="V71" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="72">
@@ -6372,19 +6381,19 @@
         <v>190</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>25</v>
@@ -6422,8 +6431,8 @@
       <c r="U72" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>31</v>
+      <c r="V72" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="73">
@@ -6440,19 +6449,19 @@
         <v>192</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>25</v>
@@ -6490,8 +6499,8 @@
       <c r="U73" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>31</v>
+      <c r="V73" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="74">
@@ -6508,19 +6517,19 @@
         <v>194</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>25</v>
@@ -6535,7 +6544,7 @@
         <v>28</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>195</v>
@@ -6558,8 +6567,8 @@
       <c r="U74" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>31</v>
+      <c r="V74" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="75">
@@ -6576,19 +6585,19 @@
         <v>196</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>25</v>
@@ -6603,7 +6612,7 @@
         <v>28</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>197</v>
@@ -6641,22 +6650,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>25</v>
@@ -6674,7 +6683,7 @@
         <v>108</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>29</v>
@@ -6709,41 +6718,41 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="G77" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O77" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="P77" s="2" t="s">
         <v>29</v>
       </c>
@@ -6762,8 +6771,8 @@
       <c r="U77" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>31</v>
+      <c r="V77" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -6777,22 +6786,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="G78" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>25</v>
@@ -6807,13 +6816,13 @@
         <v>28</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="Q78" s="2" t="s">
         <v>29</v>
@@ -6830,8 +6839,8 @@
       <c r="U78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>31</v>
+      <c r="V78" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="79">
@@ -6848,19 +6857,19 @@
         <v>56</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>25</v>
@@ -6875,13 +6884,13 @@
         <v>28</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>29</v>
@@ -6898,8 +6907,8 @@
       <c r="U79" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>31</v>
+      <c r="V79" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="80">
@@ -6913,22 +6922,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="I80" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>25</v>
@@ -6943,13 +6952,13 @@
         <v>28</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>29</v>
@@ -6966,8 +6975,8 @@
       <c r="U80" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>31</v>
+      <c r="V80" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="81">
@@ -6981,22 +6990,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>25</v>
@@ -7011,7 +7020,7 @@
         <v>28</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>29</v>
@@ -7034,8 +7043,8 @@
       <c r="U81" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>31</v>
+      <c r="V81" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="82">
@@ -7049,22 +7058,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>25</v>
@@ -7079,13 +7088,13 @@
         <v>28</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="Q82" s="2" t="s">
         <v>29</v>
@@ -7102,8 +7111,8 @@
       <c r="U82" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>31</v>
+      <c r="V82" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="83">
@@ -7117,22 +7126,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>25</v>
@@ -7147,13 +7156,13 @@
         <v>28</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>29</v>
@@ -7170,8 +7179,8 @@
       <c r="U83" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>31</v>
+      <c r="V83" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="84">
@@ -7185,22 +7194,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>25</v>
@@ -7215,7 +7224,7 @@
         <v>28</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>29</v>
@@ -7238,8 +7247,8 @@
       <c r="U84" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>31</v>
+      <c r="V84" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="85">
@@ -7256,19 +7265,19 @@
         <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>25</v>
@@ -7283,7 +7292,7 @@
         <v>28</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>29</v>
@@ -7306,8 +7315,8 @@
       <c r="U85" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>31</v>
+      <c r="V85" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="86">
@@ -7321,22 +7330,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>25</v>
@@ -7351,7 +7360,7 @@
         <v>28</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>29</v>
@@ -7369,13 +7378,13 @@
         <v>29</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="U86" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>31</v>
+      <c r="V86" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="87">
@@ -7392,19 +7401,19 @@
         <v>214</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>25</v>
@@ -7437,13 +7446,13 @@
         <v>29</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="U87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>31</v>
+      <c r="V87" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="88">
@@ -7457,22 +7466,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>25</v>
@@ -7487,7 +7496,7 @@
         <v>28</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>29</v>
@@ -7510,8 +7519,8 @@
       <c r="U88" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>31</v>
+      <c r="V88" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="89">
@@ -7525,22 +7534,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>25</v>
@@ -7555,7 +7564,7 @@
         <v>28</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>29</v>
@@ -7578,8 +7587,8 @@
       <c r="U89" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>31</v>
+      <c r="V89" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="90">
@@ -7593,22 +7602,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>25</v>
@@ -7623,7 +7632,7 @@
         <v>28</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>29</v>
@@ -7646,8 +7655,8 @@
       <c r="U90" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>31</v>
+      <c r="V90" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="91">
@@ -7661,22 +7670,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>25</v>
@@ -7691,7 +7700,7 @@
         <v>28</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>29</v>
@@ -7714,8 +7723,8 @@
       <c r="U91" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>31</v>
+      <c r="V91" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="92">
@@ -7729,22 +7738,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>25</v>
@@ -7759,7 +7768,7 @@
         <v>28</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>29</v>
@@ -7782,8 +7791,8 @@
       <c r="U92" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>31</v>
+      <c r="V92" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="93">
@@ -7797,22 +7806,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>25</v>
@@ -7827,7 +7836,7 @@
         <v>28</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>29</v>
@@ -7850,8 +7859,8 @@
       <c r="U93" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>31</v>
+      <c r="V93" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="94">
@@ -7865,22 +7874,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>25</v>
@@ -7895,10 +7904,10 @@
         <v>28</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>29</v>
@@ -7918,8 +7927,8 @@
       <c r="U94" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>31</v>
+      <c r="V94" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -7933,22 +7942,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>25</v>
@@ -7963,11 +7972,11 @@
         <v>28</v>
       </c>
       <c r="N95" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O95" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="P95" s="2" t="s">
         <v>29</v>
       </c>
@@ -7986,8 +7995,8 @@
       <c r="U95" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>31</v>
+      <c r="V95" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="96">
@@ -8001,22 +8010,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>25</v>
@@ -8031,10 +8040,10 @@
         <v>28</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>29</v>
@@ -8054,8 +8063,8 @@
       <c r="U96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>31</v>
+      <c r="V96" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="97">
@@ -8069,22 +8078,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>25</v>
@@ -8122,8 +8131,8 @@
       <c r="U97" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>31</v>
+      <c r="V97" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="98">
@@ -8137,22 +8146,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>25</v>
@@ -8170,7 +8179,7 @@
         <v>29</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>29</v>
@@ -8190,8 +8199,8 @@
       <c r="U98" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>31</v>
+      <c r="V98" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="99">
@@ -8205,22 +8214,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>25</v>
@@ -8238,7 +8247,7 @@
         <v>29</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>29</v>
@@ -8258,8 +8267,8 @@
       <c r="U99" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>31</v>
+      <c r="V99" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="100">
@@ -8273,22 +8282,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>25</v>
@@ -8306,7 +8315,7 @@
         <v>29</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="P100" s="2" t="s">
         <v>29</v>
@@ -8326,8 +8335,8 @@
       <c r="U100" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>31</v>
+      <c r="V100" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="101">
@@ -8341,22 +8350,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>25</v>
@@ -8371,10 +8380,10 @@
         <v>28</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="P101" s="2" t="s">
         <v>29</v>
@@ -8394,8 +8403,8 @@
       <c r="U101" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>31</v>
+      <c r="V101" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="102">
@@ -8409,22 +8418,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>25</v>
@@ -8439,7 +8448,7 @@
         <v>28</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>29</v>
@@ -8477,22 +8486,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>25</v>
@@ -8545,22 +8554,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>25</v>
@@ -8575,10 +8584,10 @@
         <v>28</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="P104" s="2" t="s">
         <v>29</v>
@@ -8598,8 +8607,8 @@
       <c r="U104" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>31</v>
+      <c r="V104" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="105">
@@ -8613,22 +8622,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="H105" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>25</v>
@@ -8646,7 +8655,7 @@
         <v>29</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="P105" s="2" t="s">
         <v>29</v>
@@ -8666,8 +8675,8 @@
       <c r="U105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>31</v>
+      <c r="V105" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="106">
@@ -8681,22 +8690,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>25</v>
@@ -8714,7 +8723,7 @@
         <v>29</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>29</v>
@@ -8734,8 +8743,8 @@
       <c r="U106" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>31</v>
+      <c r="V106" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="107">
@@ -8749,23 +8758,23 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F107" s="2" t="s">
+      <c r="I107" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="J107" s="2" t="s">
         <v>25</v>
       </c>
@@ -8782,7 +8791,7 @@
         <v>29</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>29</v>
@@ -8802,8 +8811,8 @@
       <c r="U107" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>31</v>
+      <c r="V107" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="108">
@@ -8817,22 +8826,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="G108" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>25</v>
@@ -8870,8 +8879,8 @@
       <c r="U108" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>31</v>
+      <c r="V108" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="109">
@@ -8885,22 +8894,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="H109" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>25</v>
@@ -8938,8 +8947,8 @@
       <c r="U109" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>31</v>
+      <c r="V109" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="110">
@@ -8953,22 +8962,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H110" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="I110" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>25</v>
@@ -9006,8 +9015,8 @@
       <c r="U110" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>31</v>
+      <c r="V110" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="111">
@@ -9021,22 +9030,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>25</v>
@@ -9074,8 +9083,8 @@
       <c r="U111" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>31</v>
+      <c r="V111" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="112">
@@ -9089,22 +9098,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>25</v>
@@ -9142,8 +9151,8 @@
       <c r="U112" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>31</v>
+      <c r="V112" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="113">
@@ -9157,22 +9166,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>25</v>
@@ -9225,22 +9234,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>25</v>
@@ -9293,22 +9302,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>25</v>
@@ -9323,7 +9332,7 @@
         <v>28</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O115" s="2" t="s">
         <v>29</v>
@@ -9346,8 +9355,8 @@
       <c r="U115" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>31</v>
+      <c r="V115" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="116">
@@ -9361,22 +9370,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>25</v>
@@ -9414,8 +9423,8 @@
       <c r="U116" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>31</v>
+      <c r="V116" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="117">
@@ -9429,22 +9438,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>25</v>
@@ -9465,7 +9474,7 @@
         <v>29</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q117" s="2" t="s">
         <v>29</v>
@@ -9482,8 +9491,8 @@
       <c r="U117" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>31</v>
+      <c r="V117" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="118">
@@ -9500,19 +9509,19 @@
         <v>134</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>25</v>
@@ -9550,8 +9559,8 @@
       <c r="U118" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>31</v>
+      <c r="V118" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="119">
@@ -9565,22 +9574,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>25</v>
@@ -9618,8 +9627,8 @@
       <c r="U119" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>31</v>
+      <c r="V119" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="120">
@@ -9633,22 +9642,22 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>25</v>
@@ -9686,8 +9695,8 @@
       <c r="U120" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>31</v>
+      <c r="V120" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="121">
@@ -9701,22 +9710,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>25</v>
@@ -9754,8 +9763,8 @@
       <c r="U121" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>31</v>
+      <c r="V121" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="122">
@@ -9769,22 +9778,22 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>25</v>
@@ -9822,8 +9831,8 @@
       <c r="U122" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>31</v>
+      <c r="V122" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="123">
@@ -9837,22 +9846,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>25</v>
@@ -9890,8 +9899,8 @@
       <c r="U123" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>31</v>
+      <c r="V123" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="124">
@@ -9905,22 +9914,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>25</v>
@@ -9935,7 +9944,7 @@
         <v>28</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O124" s="2" t="s">
         <v>29</v>
@@ -9958,8 +9967,8 @@
       <c r="U124" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>31</v>
+      <c r="V124" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="125">
@@ -9973,22 +9982,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>25</v>
@@ -10003,7 +10012,7 @@
         <v>28</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>29</v>
@@ -10026,8 +10035,8 @@
       <c r="U125" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>31</v>
+      <c r="V125" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="126">
@@ -10041,22 +10050,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>25</v>
@@ -10071,7 +10080,7 @@
         <v>28</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O126" s="2" t="s">
         <v>29</v>
@@ -10094,8 +10103,8 @@
       <c r="U126" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>31</v>
+      <c r="V126" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="127">
@@ -10109,22 +10118,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>25</v>
@@ -10139,13 +10148,13 @@
         <v>28</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O127" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q127" s="2" t="s">
         <v>29</v>
@@ -10162,8 +10171,8 @@
       <c r="U127" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>31</v>
+      <c r="V127" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="128">
@@ -10177,22 +10186,22 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>25</v>
@@ -10207,13 +10216,13 @@
         <v>28</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O128" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q128" s="2" t="s">
         <v>29</v>
@@ -10230,8 +10239,8 @@
       <c r="U128" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>31</v>
+      <c r="V128" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="129">
@@ -10245,22 +10254,22 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>25</v>
@@ -10275,13 +10284,13 @@
         <v>28</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O129" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q129" s="2" t="s">
         <v>29</v>
@@ -10298,8 +10307,8 @@
       <c r="U129" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>31</v>
+      <c r="V129" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="130">
@@ -10313,22 +10322,22 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>25</v>
@@ -10343,13 +10352,13 @@
         <v>28</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q130" s="2" t="s">
         <v>29</v>
@@ -10366,8 +10375,8 @@
       <c r="U130" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>31</v>
+      <c r="V130" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="131">
@@ -10381,22 +10390,22 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>25</v>
@@ -10411,13 +10420,13 @@
         <v>28</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O131" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q131" s="2" t="s">
         <v>29</v>
@@ -10434,8 +10443,8 @@
       <c r="U131" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>31</v>
+      <c r="V131" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="132">
@@ -10449,22 +10458,22 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>25</v>
@@ -10479,13 +10488,13 @@
         <v>28</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O132" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q132" s="2" t="s">
         <v>29</v>
@@ -10502,8 +10511,8 @@
       <c r="U132" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>31</v>
+      <c r="V132" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="133">
@@ -10517,22 +10526,22 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>25</v>
@@ -10547,7 +10556,7 @@
         <v>28</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O133" s="2" t="s">
         <v>29</v>
@@ -10570,8 +10579,8 @@
       <c r="U133" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>31</v>
+      <c r="V133" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="134">
@@ -10585,22 +10594,22 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>25</v>
@@ -10615,7 +10624,7 @@
         <v>28</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O134" s="2" t="s">
         <v>29</v>
@@ -10638,8 +10647,8 @@
       <c r="U134" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>31</v>
+      <c r="V134" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="135">
@@ -10653,22 +10662,22 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>25</v>
@@ -10683,7 +10692,7 @@
         <v>28</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O135" s="2" t="s">
         <v>29</v>
@@ -10701,13 +10710,13 @@
         <v>29</v>
       </c>
       <c r="T135" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="U135" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>31</v>
+      <c r="V135" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="136">
@@ -10721,22 +10730,22 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>25</v>
@@ -10751,7 +10760,7 @@
         <v>28</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O136" s="2" t="s">
         <v>29</v>
@@ -10774,8 +10783,8 @@
       <c r="U136" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>31</v>
+      <c r="V136" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="137">
@@ -10789,22 +10798,22 @@
         <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>25</v>
@@ -10819,7 +10828,7 @@
         <v>28</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O137" s="2" t="s">
         <v>29</v>
@@ -10842,8 +10851,8 @@
       <c r="U137" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>31</v>
+      <c r="V137" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="138">
@@ -10857,22 +10866,22 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>25</v>
@@ -10887,7 +10896,7 @@
         <v>28</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O138" s="2" t="s">
         <v>29</v>
@@ -10910,8 +10919,8 @@
       <c r="U138" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>31</v>
+      <c r="V138" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="139">
@@ -10925,22 +10934,22 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>25</v>
@@ -10955,7 +10964,7 @@
         <v>28</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>29</v>
@@ -10978,8 +10987,8 @@
       <c r="U139" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>31</v>
+      <c r="V139" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="140">
@@ -10993,22 +11002,22 @@
         <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>25</v>
@@ -11023,7 +11032,7 @@
         <v>28</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O140" s="2" t="s">
         <v>29</v>
@@ -11046,8 +11055,8 @@
       <c r="U140" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>31</v>
+      <c r="V140" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="141">
@@ -11061,22 +11070,22 @@
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>25</v>
@@ -11091,7 +11100,7 @@
         <v>28</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O141" s="2" t="s">
         <v>29</v>
@@ -11114,8 +11123,8 @@
       <c r="U141" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>31</v>
+      <c r="V141" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="142">
@@ -11129,22 +11138,22 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>25</v>
@@ -11159,7 +11168,7 @@
         <v>28</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O142" s="2" t="s">
         <v>29</v>
@@ -11182,8 +11191,8 @@
       <c r="U142" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>31</v>
+      <c r="V142" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="143">
@@ -11197,22 +11206,22 @@
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>25</v>
@@ -11227,7 +11236,7 @@
         <v>28</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O143" s="2" t="s">
         <v>29</v>
@@ -11250,8 +11259,8 @@
       <c r="U143" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>31</v>
+      <c r="V143" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="144">
@@ -11265,22 +11274,22 @@
         <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>25</v>
@@ -11295,7 +11304,7 @@
         <v>28</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O144" s="2" t="s">
         <v>29</v>
@@ -11318,8 +11327,8 @@
       <c r="U144" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>31</v>
+      <c r="V144" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="145">
@@ -11333,22 +11342,22 @@
         <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>25</v>
@@ -11363,7 +11372,7 @@
         <v>28</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O145" s="2" t="s">
         <v>91</v>
@@ -11386,8 +11395,8 @@
       <c r="U145" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>31</v>
+      <c r="V145" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="146">
@@ -11401,22 +11410,22 @@
         <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>25</v>
@@ -11454,8 +11463,8 @@
       <c r="U146" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>31</v>
+      <c r="V146" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="147">
@@ -11469,22 +11478,22 @@
         <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>25</v>
@@ -11502,7 +11511,7 @@
         <v>111</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P147" s="2" t="s">
         <v>29</v>
@@ -11522,8 +11531,8 @@
       <c r="U147" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>31</v>
+      <c r="V147" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="148">
@@ -11537,22 +11546,22 @@
         <v>22</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>25</v>
@@ -11590,8 +11599,8 @@
       <c r="U148" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>31</v>
+      <c r="V148" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="149">
@@ -11605,22 +11614,22 @@
         <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>25</v>
@@ -11638,7 +11647,7 @@
         <v>54</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P149" s="2" t="s">
         <v>29</v>
@@ -11658,8 +11667,8 @@
       <c r="U149" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>31</v>
+      <c r="V149" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="150">
@@ -11673,22 +11682,22 @@
         <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>25</v>
@@ -11706,7 +11715,7 @@
         <v>97</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P150" s="2" t="s">
         <v>29</v>
@@ -11726,8 +11735,8 @@
       <c r="U150" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>31</v>
+      <c r="V150" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="151">
@@ -11741,22 +11750,22 @@
         <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>25</v>
@@ -11774,7 +11783,7 @@
         <v>29</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P151" s="2" t="s">
         <v>29</v>
@@ -11794,8 +11803,8 @@
       <c r="U151" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>31</v>
+      <c r="V151" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="152">
@@ -11809,22 +11818,22 @@
         <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>25</v>
@@ -11842,7 +11851,7 @@
         <v>29</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P152" s="2" t="s">
         <v>29</v>
@@ -11862,8 +11871,8 @@
       <c r="U152" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>31</v>
+      <c r="V152" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="153">
@@ -11877,22 +11886,22 @@
         <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>25</v>
@@ -11910,7 +11919,7 @@
         <v>102</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P153" s="2" t="s">
         <v>29</v>
@@ -11930,8 +11939,8 @@
       <c r="U153" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>31</v>
+      <c r="V153" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="154">
@@ -11945,22 +11954,22 @@
         <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>25</v>
@@ -11978,7 +11987,7 @@
         <v>102</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P154" s="2" t="s">
         <v>29</v>
@@ -11998,8 +12007,8 @@
       <c r="U154" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>31</v>
+      <c r="V154" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="155">
@@ -12013,22 +12022,22 @@
         <v>22</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>25</v>
@@ -12046,7 +12055,7 @@
         <v>102</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P155" s="2" t="s">
         <v>29</v>
@@ -12066,8 +12075,8 @@
       <c r="U155" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>31</v>
+      <c r="V155" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="156">
@@ -12081,22 +12090,22 @@
         <v>22</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>25</v>
@@ -12111,10 +12120,10 @@
         <v>28</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P156" s="2" t="s">
         <v>29</v>
@@ -12134,8 +12143,8 @@
       <c r="U156" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>31</v>
+      <c r="V156" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="157">
@@ -12149,22 +12158,22 @@
         <v>22</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>25</v>
@@ -12179,10 +12188,10 @@
         <v>28</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P157" s="2" t="s">
         <v>29</v>
@@ -12217,22 +12226,22 @@
         <v>22</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>25</v>
@@ -12247,10 +12256,10 @@
         <v>28</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P158" s="2" t="s">
         <v>29</v>
@@ -12285,7 +12294,7 @@
         <v>22</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>112</v>
@@ -12294,13 +12303,13 @@
         <v>116</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>25</v>
@@ -12338,8 +12347,8 @@
       <c r="U159" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>31</v>
+      <c r="V159" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="160">
@@ -12353,22 +12362,22 @@
         <v>22</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>25</v>
@@ -12406,8 +12415,8 @@
       <c r="U160" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>31</v>
+      <c r="V160" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="161">
@@ -12421,22 +12430,22 @@
         <v>22</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>25</v>
@@ -12474,8 +12483,8 @@
       <c r="U161" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>31</v>
+      <c r="V161" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="162">
@@ -12489,22 +12498,22 @@
         <v>22</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>25</v>
@@ -12542,8 +12551,8 @@
       <c r="U162" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>31</v>
+      <c r="V162" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="163">
@@ -12557,22 +12566,22 @@
         <v>22</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>25</v>
@@ -12587,7 +12596,7 @@
         <v>28</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="O163" s="2" t="s">
         <v>29</v>
@@ -12610,8 +12619,8 @@
       <c r="U163" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>31</v>
+      <c r="V163" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="164">
@@ -12625,22 +12634,22 @@
         <v>22</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>25</v>
@@ -12655,7 +12664,7 @@
         <v>28</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="O164" s="2" t="s">
         <v>29</v>
@@ -12678,8 +12687,8 @@
       <c r="U164" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>31</v>
+      <c r="V164" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="165">
@@ -12693,22 +12702,22 @@
         <v>22</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>25</v>
@@ -12723,7 +12732,7 @@
         <v>28</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="O165" s="2" t="s">
         <v>29</v>
@@ -12746,8 +12755,8 @@
       <c r="U165" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>31</v>
+      <c r="V165" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="166">
@@ -12761,22 +12770,22 @@
         <v>22</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>25</v>
@@ -12791,7 +12800,7 @@
         <v>28</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="O166" s="2" t="s">
         <v>29</v>
@@ -12814,8 +12823,8 @@
       <c r="U166" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>31</v>
+      <c r="V166" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="167">
@@ -12829,22 +12838,22 @@
         <v>22</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>25</v>
@@ -12859,7 +12868,7 @@
         <v>28</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O167" s="2" t="s">
         <v>29</v>
@@ -12882,8 +12891,8 @@
       <c r="U167" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>31</v>
+      <c r="V167" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="168">
@@ -12897,22 +12906,22 @@
         <v>22</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>25</v>
@@ -12927,7 +12936,7 @@
         <v>28</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O168" s="2" t="s">
         <v>29</v>
@@ -12950,8 +12959,8 @@
       <c r="U168" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>31</v>
+      <c r="V168" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="169">
@@ -12965,22 +12974,22 @@
         <v>22</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>25</v>
@@ -12995,7 +13004,7 @@
         <v>28</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O169" s="2" t="s">
         <v>29</v>
@@ -13018,8 +13027,8 @@
       <c r="U169" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>31</v>
+      <c r="V169" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="170">
@@ -13039,16 +13048,16 @@
         <v>88</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>25</v>
@@ -13063,7 +13072,7 @@
         <v>28</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O170" s="2" t="s">
         <v>29</v>
@@ -13086,8 +13095,8 @@
       <c r="U170" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V170" s="1" t="s">
-        <v>31</v>
+      <c r="V170" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="171">
@@ -13101,22 +13110,22 @@
         <v>22</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>25</v>
@@ -13131,7 +13140,7 @@
         <v>28</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O171" s="2" t="s">
         <v>29</v>
@@ -13154,8 +13163,8 @@
       <c r="U171" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V171" s="1" t="s">
-        <v>31</v>
+      <c r="V171" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="172">
@@ -13169,22 +13178,22 @@
         <v>22</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>25</v>
@@ -13199,7 +13208,7 @@
         <v>28</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O172" s="2" t="s">
         <v>29</v>
@@ -13222,8 +13231,8 @@
       <c r="U172" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>31</v>
+      <c r="V172" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="173">
@@ -13237,22 +13246,22 @@
         <v>22</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>25</v>
@@ -13267,7 +13276,7 @@
         <v>28</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O173" s="2" t="s">
         <v>29</v>
@@ -13290,8 +13299,8 @@
       <c r="U173" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>31</v>
+      <c r="V173" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="174">
@@ -13305,22 +13314,22 @@
         <v>22</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>25</v>
@@ -13335,7 +13344,7 @@
         <v>28</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O174" s="2" t="s">
         <v>29</v>
@@ -13353,13 +13362,13 @@
         <v>29</v>
       </c>
       <c r="T174" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="U174" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>31</v>
+      <c r="V174" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="175">
@@ -13373,22 +13382,22 @@
         <v>22</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>25</v>
@@ -13403,7 +13412,7 @@
         <v>28</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O175" s="2" t="s">
         <v>29</v>
@@ -13421,13 +13430,13 @@
         <v>29</v>
       </c>
       <c r="T175" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="U175" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>31</v>
+      <c r="V175" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="176">
@@ -13441,22 +13450,22 @@
         <v>22</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>25</v>
@@ -13489,13 +13498,13 @@
         <v>29</v>
       </c>
       <c r="T176" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="U176" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V176" s="1" t="s">
-        <v>31</v>
+      <c r="V176" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="177">
@@ -13509,22 +13518,22 @@
         <v>22</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>25</v>
@@ -13557,13 +13566,13 @@
         <v>29</v>
       </c>
       <c r="T177" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="U177" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V177" s="1" t="s">
-        <v>31</v>
+      <c r="V177" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="178">
@@ -13577,22 +13586,22 @@
         <v>22</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>25</v>
@@ -13625,13 +13634,13 @@
         <v>29</v>
       </c>
       <c r="T178" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="U178" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>31</v>
+      <c r="V178" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="179">
@@ -13645,22 +13654,22 @@
         <v>22</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>25</v>
@@ -13693,13 +13702,13 @@
         <v>29</v>
       </c>
       <c r="T179" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U179" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>31</v>
+      <c r="V179" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="180">
@@ -13713,22 +13722,22 @@
         <v>22</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>25</v>
@@ -13761,13 +13770,13 @@
         <v>29</v>
       </c>
       <c r="T180" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U180" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>31</v>
+      <c r="V180" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="181">
@@ -13781,22 +13790,22 @@
         <v>22</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>25</v>
@@ -13829,13 +13838,13 @@
         <v>29</v>
       </c>
       <c r="T181" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="U181" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>31</v>
+      <c r="V181" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="182">
@@ -13849,22 +13858,22 @@
         <v>22</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>25</v>
@@ -13897,7 +13906,7 @@
         <v>29</v>
       </c>
       <c r="T182" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="U182" s="1" t="s">
         <v>31</v>
@@ -13917,22 +13926,22 @@
         <v>22</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>25</v>
@@ -13965,7 +13974,7 @@
         <v>29</v>
       </c>
       <c r="T183" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="U183" s="1" t="s">
         <v>31</v>

--- a/Excel-XLSX/UN-BZE.xlsx
+++ b/Excel-XLSX/UN-BZE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>WjK4g9</t>
+    <t>Avz9E1</t>
   </si>
   <si>
     <t>1980</t>
@@ -1155,40 +1155,25 @@
     <t>2024</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>5356</t>
-  </si>
-  <si>
     <t>184</t>
   </si>
   <si>
-    <t>408</t>
+    <t>418</t>
   </si>
   <si>
     <t>186</t>
   </si>
   <si>
+    <t>438</t>
+  </si>
+  <si>
     <t>187</t>
   </si>
   <si>
-    <t>377</t>
-  </si>
-  <si>
     <t>188</t>
   </si>
   <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
-    <t>190</t>
+    <t>1125</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1558,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V191"/>
+  <dimension ref="A1:V189"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -14042,16 +14027,16 @@
         <v>378</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>379</v>
+        <v>259</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>29</v>
@@ -14069,7 +14054,7 @@
         <v>34</v>
       </c>
       <c r="O184" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="P184" s="2" t="s">
         <v>34</v>
@@ -14084,7 +14069,7 @@
         <v>34</v>
       </c>
       <c r="T184" s="2" t="s">
-        <v>381</v>
+        <v>34</v>
       </c>
       <c r="U184" s="1" t="s">
         <v>35</v>
@@ -14104,22 +14089,22 @@
         <v>22</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>378</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>259</v>
+        <v>54</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>260</v>
+        <v>56</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>29</v>
@@ -14134,10 +14119,10 @@
         <v>32</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="O185" s="2" t="s">
-        <v>49</v>
+        <v>380</v>
       </c>
       <c r="P185" s="2" t="s">
         <v>34</v>
@@ -14178,16 +14163,16 @@
         <v>378</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>56</v>
+        <v>239</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>29</v>
@@ -14202,10 +14187,10 @@
         <v>32</v>
       </c>
       <c r="N186" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="O186" s="2" t="s">
-        <v>383</v>
+        <v>62</v>
       </c>
       <c r="P186" s="2" t="s">
         <v>34</v>
@@ -14240,22 +14225,22 @@
         <v>22</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>378</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>220</v>
+        <v>114</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>239</v>
+        <v>117</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>29</v>
@@ -14270,10 +14255,10 @@
         <v>32</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>62</v>
+        <v>382</v>
       </c>
       <c r="P187" s="2" t="s">
         <v>34</v>
@@ -14308,22 +14293,22 @@
         <v>22</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>378</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>29</v>
@@ -14338,10 +14323,10 @@
         <v>32</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="O188" s="2" t="s">
-        <v>386</v>
+        <v>51</v>
       </c>
       <c r="P188" s="2" t="s">
         <v>34</v>
@@ -14376,22 +14361,22 @@
         <v>22</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>378</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>29</v>
@@ -14406,10 +14391,10 @@
         <v>32</v>
       </c>
       <c r="N189" s="2" t="s">
-        <v>66</v>
+        <v>336</v>
       </c>
       <c r="O189" s="2" t="s">
-        <v>34</v>
+        <v>385</v>
       </c>
       <c r="P189" s="2" t="s">
         <v>34</v>
@@ -14430,142 +14415,6 @@
         <v>35</v>
       </c>
       <c r="V189" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J190" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K190" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L190" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M190" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N190" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="O190" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="P190" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q190" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R190" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S190" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T190" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U190" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V190" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I191" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J191" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K191" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L191" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M191" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N191" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O191" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P191" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q191" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R191" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S191" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T191" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="U191" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V191" s="2" t="s">
         <v>34</v>
       </c>
     </row>
